--- a/Code/Results/Cases/Case_0_89/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_89/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9869917042791083</v>
+        <v>1.028821523550997</v>
       </c>
       <c r="D2">
-        <v>0.9955051621421759</v>
+        <v>1.031465965228461</v>
       </c>
       <c r="E2">
-        <v>0.9950070253186729</v>
+        <v>1.028710766320391</v>
       </c>
       <c r="F2">
-        <v>0.9957227377737859</v>
+        <v>1.03807275615048</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03867146775808</v>
+        <v>1.032329644113709</v>
       </c>
       <c r="J2">
-        <v>1.009568576767668</v>
+        <v>1.033971715340891</v>
       </c>
       <c r="K2">
-        <v>1.007027474432153</v>
+        <v>1.034274002803758</v>
       </c>
       <c r="L2">
-        <v>1.006536361295342</v>
+        <v>1.031526790337162</v>
       </c>
       <c r="M2">
-        <v>1.007241985052111</v>
+        <v>1.040861830341833</v>
       </c>
       <c r="N2">
-        <v>1.00661895112078</v>
+        <v>1.015238511337861</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9931640060569507</v>
+        <v>1.03007248251755</v>
       </c>
       <c r="D3">
-        <v>1.001002867365861</v>
+        <v>1.032630246622662</v>
       </c>
       <c r="E3">
-        <v>1.000053190906863</v>
+        <v>1.029782196258577</v>
       </c>
       <c r="F3">
-        <v>1.002313341470764</v>
+        <v>1.039470920725733</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040225164774635</v>
+        <v>1.032563765878207</v>
       </c>
       <c r="J3">
-        <v>1.013842777945546</v>
+        <v>1.034861902188711</v>
       </c>
       <c r="K3">
-        <v>1.011622932379221</v>
+        <v>1.03524590045261</v>
       </c>
       <c r="L3">
-        <v>1.010685391190618</v>
+        <v>1.032405502867038</v>
       </c>
       <c r="M3">
-        <v>1.012916707987819</v>
+        <v>1.042068378675414</v>
       </c>
       <c r="N3">
-        <v>1.008100412716992</v>
+        <v>1.015541222587669</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9970513986520072</v>
+        <v>1.030881240532274</v>
       </c>
       <c r="D4">
-        <v>1.004470755488742</v>
+        <v>1.033383231927748</v>
       </c>
       <c r="E4">
-        <v>1.00323783425445</v>
+        <v>1.030475198248394</v>
       </c>
       <c r="F4">
-        <v>1.006466837216851</v>
+        <v>1.040375058612687</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041190743009781</v>
+        <v>1.032713488350325</v>
       </c>
       <c r="J4">
-        <v>1.016530831882166</v>
+        <v>1.035436755945643</v>
       </c>
       <c r="K4">
-        <v>1.014515520252711</v>
+        <v>1.035873832225748</v>
       </c>
       <c r="L4">
-        <v>1.013297337918584</v>
+        <v>1.032973215365554</v>
       </c>
       <c r="M4">
-        <v>1.016487834792681</v>
+        <v>1.042848009353497</v>
       </c>
       <c r="N4">
-        <v>1.009031264658714</v>
+        <v>1.015736506279467</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9986613989790075</v>
+        <v>1.031221079058205</v>
       </c>
       <c r="D5">
-        <v>1.005908240614012</v>
+        <v>1.033699697793622</v>
       </c>
       <c r="E5">
-        <v>1.004558270677098</v>
+        <v>1.030766470105037</v>
       </c>
       <c r="F5">
-        <v>1.008187691019336</v>
+        <v>1.040755026238178</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041587484848981</v>
+        <v>1.032776008573091</v>
       </c>
       <c r="J5">
-        <v>1.017643129649118</v>
+        <v>1.035678149646683</v>
       </c>
       <c r="K5">
-        <v>1.015713053062001</v>
+        <v>1.036137589270729</v>
       </c>
       <c r="L5">
-        <v>1.014378763247717</v>
+        <v>1.03321167452347</v>
       </c>
       <c r="M5">
-        <v>1.017966145010432</v>
+        <v>1.043175509427526</v>
       </c>
       <c r="N5">
-        <v>1.009416230009967</v>
+        <v>1.015818462718887</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.998930336837619</v>
+        <v>1.031278129959271</v>
       </c>
       <c r="D6">
-        <v>1.006148431598018</v>
+        <v>1.033752828647603</v>
       </c>
       <c r="E6">
-        <v>1.004778924487099</v>
+        <v>1.03081537210877</v>
       </c>
       <c r="F6">
-        <v>1.008475184190885</v>
+        <v>1.040818816854999</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041653570047968</v>
+        <v>1.032786481200727</v>
       </c>
       <c r="J6">
-        <v>1.017828870835445</v>
+        <v>1.035718664656288</v>
       </c>
       <c r="K6">
-        <v>1.015913062902873</v>
+        <v>1.036181862081034</v>
       </c>
       <c r="L6">
-        <v>1.014559385374728</v>
+        <v>1.03325170077104</v>
       </c>
       <c r="M6">
-        <v>1.018213043188159</v>
+        <v>1.043230483182036</v>
       </c>
       <c r="N6">
-        <v>1.009480501903033</v>
+        <v>1.015832215324939</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9970730053083308</v>
+        <v>1.030885782109013</v>
       </c>
       <c r="D7">
-        <v>1.004490042168487</v>
+        <v>1.033387460907429</v>
       </c>
       <c r="E7">
-        <v>1.00325554909785</v>
+        <v>1.03047909049475</v>
       </c>
       <c r="F7">
-        <v>1.006489928998947</v>
+        <v>1.040380136272096</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041196079969757</v>
+        <v>1.032714325410337</v>
       </c>
       <c r="J7">
-        <v>1.016545763193482</v>
+        <v>1.035439982537355</v>
       </c>
       <c r="K7">
-        <v>1.014531593367814</v>
+        <v>1.035877357443522</v>
       </c>
       <c r="L7">
-        <v>1.013311852357486</v>
+        <v>1.032976402480221</v>
       </c>
       <c r="M7">
-        <v>1.016507676939786</v>
+        <v>1.042852386429669</v>
       </c>
       <c r="N7">
-        <v>1.009036433238959</v>
+        <v>1.015737601938028</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9891004874820475</v>
+        <v>1.029244437109992</v>
       </c>
       <c r="D8">
-        <v>0.997382299222961</v>
+        <v>1.031859520271543</v>
       </c>
       <c r="E8">
-        <v>0.9967296437052999</v>
+        <v>1.02907292127097</v>
       </c>
       <c r="F8">
-        <v>0.9979738817835375</v>
+        <v>1.038545392487591</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039204989510901</v>
+        <v>1.032409133522982</v>
       </c>
       <c r="J8">
-        <v>1.011029656057372</v>
+        <v>1.034272798907711</v>
       </c>
       <c r="K8">
-        <v>1.008597846074224</v>
+        <v>1.034602658400263</v>
       </c>
       <c r="L8">
-        <v>1.00795409703887</v>
+        <v>1.031823937304008</v>
       </c>
       <c r="M8">
-        <v>1.009181368254967</v>
+        <v>1.041269816141795</v>
       </c>
       <c r="N8">
-        <v>1.007125539001893</v>
+        <v>1.015340936696992</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9741755778975142</v>
+        <v>1.026346697999833</v>
       </c>
       <c r="D9">
-        <v>0.9841226748793056</v>
+        <v>1.029164053325448</v>
       </c>
       <c r="E9">
-        <v>0.984569151962828</v>
+        <v>1.026592799419222</v>
       </c>
       <c r="F9">
-        <v>0.9820524237597335</v>
+        <v>1.03530780639979</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035375520531927</v>
+        <v>1.031857762072808</v>
       </c>
       <c r="J9">
-        <v>1.000674420185343</v>
+        <v>1.032207119476185</v>
       </c>
       <c r="K9">
-        <v>0.9974787125935357</v>
+        <v>1.032349093291692</v>
       </c>
       <c r="L9">
-        <v>0.9979176456057139</v>
+        <v>1.029786373199142</v>
       </c>
       <c r="M9">
-        <v>0.9954435580081378</v>
+        <v>1.038472643856605</v>
       </c>
       <c r="N9">
-        <v>1.003532064938299</v>
+        <v>1.014637410542688</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9635426794702333</v>
+        <v>1.024410978185318</v>
       </c>
       <c r="D10">
-        <v>0.9747125705576339</v>
+        <v>1.027364874832375</v>
       </c>
       <c r="E10">
-        <v>0.9759499312325858</v>
+        <v>1.024937727986082</v>
       </c>
       <c r="F10">
-        <v>0.9707231188854998</v>
+        <v>1.033146110846725</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032581533743576</v>
+        <v>1.031481006549958</v>
       </c>
       <c r="J10">
-        <v>0.9932813407153777</v>
+        <v>1.030823846642013</v>
       </c>
       <c r="K10">
-        <v>0.9895539171078125</v>
+        <v>1.030841612078244</v>
       </c>
       <c r="L10">
-        <v>0.9907674319193658</v>
+        <v>1.028423322015123</v>
       </c>
       <c r="M10">
-        <v>0.985641891386609</v>
+        <v>1.036601937115488</v>
       </c>
       <c r="N10">
-        <v>1.00096319295988</v>
+        <v>1.014165294207886</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9587525558619333</v>
+        <v>1.023571819254811</v>
       </c>
       <c r="D11">
-        <v>0.9704831770283214</v>
+        <v>1.026585253146045</v>
       </c>
       <c r="E11">
-        <v>0.9720789633782106</v>
+        <v>1.02422064122451</v>
       </c>
       <c r="F11">
-        <v>0.9656222891136427</v>
+        <v>1.032209231086892</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031308100545159</v>
+        <v>1.031315681577461</v>
       </c>
       <c r="J11">
-        <v>0.9899479767830178</v>
+        <v>1.030223384269761</v>
       </c>
       <c r="K11">
-        <v>0.9859840636275836</v>
+        <v>1.030187613268001</v>
       </c>
       <c r="L11">
-        <v>0.9875473638863307</v>
+        <v>1.027831969257271</v>
       </c>
       <c r="M11">
-        <v>0.9812230045372188</v>
+        <v>1.035790444777253</v>
       </c>
       <c r="N11">
-        <v>0.999804372849163</v>
+        <v>1.013960118637935</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9569430312748936</v>
+        <v>1.023259966937394</v>
       </c>
       <c r="D12">
-        <v>0.9688870709567943</v>
+        <v>1.026295578810505</v>
       </c>
       <c r="E12">
-        <v>0.9706186026238963</v>
+        <v>1.023954216041298</v>
       </c>
       <c r="F12">
-        <v>0.9636958260005183</v>
+        <v>1.031861099252305</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030824912064925</v>
+        <v>1.031253943006371</v>
       </c>
       <c r="J12">
-        <v>0.9886884317373354</v>
+        <v>1.03000011831362</v>
       </c>
       <c r="K12">
-        <v>0.9846356476494188</v>
+        <v>1.02994449840724</v>
       </c>
       <c r="L12">
-        <v>0.9863312150257527</v>
+        <v>1.027612140375977</v>
       </c>
       <c r="M12">
-        <v>0.9795532512257491</v>
+        <v>1.035488796017534</v>
       </c>
       <c r="N12">
-        <v>0.9993664336584246</v>
+        <v>1.013883794391185</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9573325897448867</v>
+        <v>1.023326867233168</v>
       </c>
       <c r="D13">
-        <v>0.9692306101984568</v>
+        <v>1.026357718977826</v>
       </c>
       <c r="E13">
-        <v>0.9709329022651939</v>
+        <v>1.024011368232496</v>
       </c>
       <c r="F13">
-        <v>0.9641105400091302</v>
+        <v>1.031935780811868</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03092902895878</v>
+        <v>1.031267201065088</v>
       </c>
       <c r="J13">
-        <v>0.9889596026959181</v>
+        <v>1.030048019957649</v>
       </c>
       <c r="K13">
-        <v>0.9849259297813567</v>
+        <v>1.029996656040563</v>
       </c>
       <c r="L13">
-        <v>0.9865930163553871</v>
+        <v>1.027659302337209</v>
       </c>
       <c r="M13">
-        <v>0.9799127402445306</v>
+        <v>1.035553510925192</v>
       </c>
       <c r="N13">
-        <v>0.9994607215251322</v>
+        <v>1.013900171323519</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.958603611581791</v>
+        <v>1.023546044556202</v>
       </c>
       <c r="D14">
-        <v>0.9703517664121437</v>
+        <v>1.026561310391276</v>
       </c>
       <c r="E14">
-        <v>0.9719587189599289</v>
+        <v>1.024198619822609</v>
       </c>
       <c r="F14">
-        <v>0.9654637107895385</v>
+        <v>1.032180457142994</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031268371509602</v>
+        <v>1.031310584975106</v>
       </c>
       <c r="J14">
-        <v>0.9898443081415014</v>
+        <v>1.030204933692826</v>
       </c>
       <c r="K14">
-        <v>0.9858730704086575</v>
+        <v>1.030167521222223</v>
       </c>
       <c r="L14">
-        <v>0.9874472550358312</v>
+        <v>1.02781380170008</v>
       </c>
       <c r="M14">
-        <v>0.9810855743936779</v>
+        <v>1.035765514999526</v>
       </c>
       <c r="N14">
-        <v>0.9997683288947335</v>
+        <v>1.013953811959843</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9593826468062541</v>
+        <v>1.023681066761229</v>
       </c>
       <c r="D15">
-        <v>0.9710391595409082</v>
+        <v>1.026686738007576</v>
       </c>
       <c r="E15">
-        <v>0.9725877228527022</v>
+        <v>1.024313982719155</v>
       </c>
       <c r="F15">
-        <v>0.9662931532641259</v>
+        <v>1.032331192532877</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031476083152759</v>
+        <v>1.031337271543175</v>
       </c>
       <c r="J15">
-        <v>0.99038652175716</v>
+        <v>1.030301583196787</v>
       </c>
       <c r="K15">
-        <v>0.9864536133405242</v>
+        <v>1.030272771559892</v>
       </c>
       <c r="L15">
-        <v>0.9879708739722337</v>
+        <v>1.027908970707529</v>
       </c>
       <c r="M15">
-        <v>0.9818043673905057</v>
+        <v>1.035896107842197</v>
       </c>
       <c r="N15">
-        <v>0.9999568454094645</v>
+        <v>1.013986846740816</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9638564735142405</v>
+        <v>1.02446664940778</v>
       </c>
       <c r="D16">
-        <v>0.9749898458566666</v>
+        <v>1.027416603571409</v>
       </c>
       <c r="E16">
-        <v>0.976203772894303</v>
+        <v>1.024985309389924</v>
       </c>
       <c r="F16">
-        <v>0.9710573279414636</v>
+        <v>1.033208270101842</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032664655484451</v>
+        <v>1.031491932463127</v>
       </c>
       <c r="J16">
-        <v>0.9934996542559287</v>
+        <v>1.030863665598849</v>
       </c>
       <c r="K16">
-        <v>0.9897877865743124</v>
+        <v>1.030884989256162</v>
       </c>
       <c r="L16">
-        <v>0.990978405278609</v>
+        <v>1.028462543865986</v>
       </c>
       <c r="M16">
-        <v>0.985931300716505</v>
+        <v>1.036655761967714</v>
       </c>
       <c r="N16">
-        <v>1.001039077738133</v>
+        <v>1.014178895246298</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.966611432366243</v>
+        <v>1.024959159474248</v>
       </c>
       <c r="D17">
-        <v>0.9774253161006594</v>
+        <v>1.027874275320737</v>
       </c>
       <c r="E17">
-        <v>0.9784337512789661</v>
+        <v>1.025406297914753</v>
       </c>
       <c r="F17">
-        <v>0.973991860792044</v>
+        <v>1.03375820619025</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033392765552415</v>
+        <v>1.031588360930435</v>
       </c>
       <c r="J17">
-        <v>0.9954160363908519</v>
+        <v>1.031215842572279</v>
       </c>
       <c r="K17">
-        <v>0.9918410878464343</v>
+        <v>1.031268680702217</v>
       </c>
       <c r="L17">
-        <v>0.9928307851350913</v>
+        <v>1.028809478034331</v>
       </c>
       <c r="M17">
-        <v>0.9884718100670529</v>
+        <v>1.03713187786409</v>
       </c>
       <c r="N17">
-        <v>1.001705140319538</v>
+        <v>1.014299161879734</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9682005753997779</v>
+        <v>1.025246338041949</v>
       </c>
       <c r="D18">
-        <v>0.9788310895876439</v>
+        <v>1.028141173159695</v>
       </c>
       <c r="E18">
-        <v>0.9797211900271948</v>
+        <v>1.025651812099182</v>
       </c>
       <c r="F18">
-        <v>0.9756848739971286</v>
+        <v>1.034078892811572</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033811366928301</v>
+        <v>1.03164439503791</v>
       </c>
       <c r="J18">
-        <v>0.9965211951086543</v>
+        <v>1.031421117275556</v>
       </c>
       <c r="K18">
-        <v>0.9930255123248241</v>
+        <v>1.0314923610679</v>
       </c>
       <c r="L18">
-        <v>0.9938993904671902</v>
+        <v>1.029011728789543</v>
       </c>
       <c r="M18">
-        <v>0.9899369463463847</v>
+        <v>1.037409447260143</v>
       </c>
       <c r="N18">
-        <v>1.002089196430149</v>
+        <v>1.014369239441937</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9687394828221829</v>
+        <v>1.025344242656056</v>
       </c>
       <c r="D19">
-        <v>0.9793079660594556</v>
+        <v>1.028232169301967</v>
       </c>
       <c r="E19">
-        <v>0.9801579700874896</v>
+        <v>1.025735519165566</v>
       </c>
       <c r="F19">
-        <v>0.9762590548336679</v>
+        <v>1.034188224941075</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033953083482624</v>
+        <v>1.031663465460303</v>
       </c>
       <c r="J19">
-        <v>0.996895926613707</v>
+        <v>1.031491086273126</v>
       </c>
       <c r="K19">
-        <v>0.9934271727130796</v>
+        <v>1.031568609962374</v>
       </c>
       <c r="L19">
-        <v>0.9942617875907949</v>
+        <v>1.029080672473979</v>
       </c>
       <c r="M19">
-        <v>0.9904337484081462</v>
+        <v>1.037504067476621</v>
       </c>
       <c r="N19">
-        <v>1.002219410203617</v>
+        <v>1.014393121903442</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9663177061053695</v>
+        <v>1.0249063275825</v>
       </c>
       <c r="D20">
-        <v>0.9771655563915467</v>
+        <v>1.027825177119083</v>
       </c>
       <c r="E20">
-        <v>0.9781958796961573</v>
+        <v>1.025361134122232</v>
       </c>
       <c r="F20">
-        <v>0.973678959208906</v>
+        <v>1.0336992117512</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033315280722072</v>
+        <v>1.031578036898614</v>
       </c>
       <c r="J20">
-        <v>0.9952117441495764</v>
+        <v>1.031178072248576</v>
       </c>
       <c r="K20">
-        <v>0.9916221678245628</v>
+        <v>1.031227526712778</v>
       </c>
       <c r="L20">
-        <v>0.9926332786300193</v>
+        <v>1.02877226668591</v>
       </c>
       <c r="M20">
-        <v>0.9882009794756978</v>
+        <v>1.037080809746983</v>
       </c>
       <c r="N20">
-        <v>1.001634141641931</v>
+        <v>1.014286265854491</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9582301825250695</v>
+        <v>1.023481506508397</v>
       </c>
       <c r="D21">
-        <v>0.9700223233704253</v>
+        <v>1.02650136025269</v>
       </c>
       <c r="E21">
-        <v>0.9716572771613891</v>
+        <v>1.02414348077368</v>
       </c>
       <c r="F21">
-        <v>0.9650661344316176</v>
+        <v>1.032108409773592</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03116872989676</v>
+        <v>1.031297818598347</v>
       </c>
       <c r="J21">
-        <v>0.9895843879733579</v>
+        <v>1.030158732810725</v>
       </c>
       <c r="K21">
-        <v>0.9855947937789972</v>
+        <v>1.030117210969021</v>
       </c>
       <c r="L21">
-        <v>0.9871962695380112</v>
+        <v>1.027768310315496</v>
       </c>
       <c r="M21">
-        <v>0.9807410058058598</v>
+        <v>1.035703091313185</v>
       </c>
       <c r="N21">
-        <v>0.999677957728473</v>
+        <v>1.013938019252696</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9529688202083221</v>
+        <v>1.022584787335401</v>
       </c>
       <c r="D22">
-        <v>0.9653846640082798</v>
+        <v>1.025668512580859</v>
       </c>
       <c r="E22">
-        <v>0.9674149972305368</v>
+        <v>1.023377503481812</v>
       </c>
       <c r="F22">
-        <v>0.9594655609547116</v>
+        <v>1.031107437533997</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029759858012179</v>
+        <v>1.031119727311483</v>
       </c>
       <c r="J22">
-        <v>0.9859216268590192</v>
+        <v>1.029516516069676</v>
       </c>
       <c r="K22">
-        <v>0.9816745256239588</v>
+        <v>1.029418007306984</v>
       </c>
       <c r="L22">
-        <v>0.9836608374656675</v>
+        <v>1.027136074358501</v>
       </c>
       <c r="M22">
-        <v>0.9758851744546887</v>
+        <v>1.034835564686297</v>
       </c>
       <c r="N22">
-        <v>0.9984043239527968</v>
+        <v>1.013718409152965</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9557755328921265</v>
+        <v>1.023060239720552</v>
       </c>
       <c r="D23">
-        <v>0.9678577346094832</v>
+        <v>1.026110070431628</v>
       </c>
       <c r="E23">
-        <v>0.9696769495141073</v>
+        <v>1.023783600419473</v>
       </c>
       <c r="F23">
-        <v>0.9624529989144084</v>
+        <v>1.031638146724862</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030512569633698</v>
+        <v>1.031214317925303</v>
       </c>
       <c r="J23">
-        <v>0.9878756973778045</v>
+        <v>1.029857093119205</v>
       </c>
       <c r="K23">
-        <v>0.9837657064185882</v>
+        <v>1.029788774011156</v>
       </c>
       <c r="L23">
-        <v>0.9855466499306538</v>
+        <v>1.027471331048162</v>
       </c>
       <c r="M23">
-        <v>0.9784758032067692</v>
+        <v>1.035295581708751</v>
       </c>
       <c r="N23">
-        <v>0.9990838324279008</v>
+        <v>1.013834890852808</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.966450483126861</v>
+        <v>1.024930200331206</v>
       </c>
       <c r="D24">
-        <v>0.9772829762058103</v>
+        <v>1.027847362650848</v>
       </c>
       <c r="E24">
-        <v>0.9783034045107103</v>
+        <v>1.025381541823581</v>
       </c>
       <c r="F24">
-        <v>0.973820403417568</v>
+        <v>1.03372586905129</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033350311564467</v>
+        <v>1.031582702536098</v>
       </c>
       <c r="J24">
-        <v>0.9953040939505284</v>
+        <v>1.031195139477416</v>
       </c>
       <c r="K24">
-        <v>0.9917211291278492</v>
+        <v>1.031246122800966</v>
       </c>
       <c r="L24">
-        <v>0.9927225598512318</v>
+        <v>1.028789081232567</v>
       </c>
       <c r="M24">
-        <v>0.988323407611519</v>
+        <v>1.037103885666192</v>
       </c>
       <c r="N24">
-        <v>1.001666236592201</v>
+        <v>1.014292093235437</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9781469642918901</v>
+        <v>1.027096503888501</v>
       </c>
       <c r="D25">
-        <v>0.9876450957823323</v>
+        <v>1.029861272476416</v>
       </c>
       <c r="E25">
-        <v>0.9877978486379143</v>
+        <v>1.027234252867081</v>
       </c>
       <c r="F25">
-        <v>0.9862866117672221</v>
+        <v>1.036145363591248</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036406008883516</v>
+        <v>1.032001918843712</v>
       </c>
       <c r="J25">
-        <v>1.003432835082946</v>
+        <v>1.032742221801606</v>
       </c>
       <c r="K25">
-        <v>1.000438282135553</v>
+        <v>1.032932583206527</v>
       </c>
       <c r="L25">
-        <v>1.000588587500963</v>
+        <v>1.030313947447302</v>
       </c>
       <c r="M25">
-        <v>0.9991016072842335</v>
+        <v>1.039196807890675</v>
       </c>
       <c r="N25">
-        <v>1.004489923299895</v>
+        <v>1.014819832249674</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_89/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_89/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028821523550997</v>
+        <v>0.9869917042791084</v>
       </c>
       <c r="D2">
-        <v>1.031465965228461</v>
+        <v>0.9955051621421759</v>
       </c>
       <c r="E2">
-        <v>1.028710766320391</v>
+        <v>0.9950070253186728</v>
       </c>
       <c r="F2">
-        <v>1.03807275615048</v>
+        <v>0.9957227377737855</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032329644113709</v>
+        <v>1.03867146775808</v>
       </c>
       <c r="J2">
-        <v>1.033971715340891</v>
+        <v>1.009568576767668</v>
       </c>
       <c r="K2">
-        <v>1.034274002803758</v>
+        <v>1.007027474432153</v>
       </c>
       <c r="L2">
-        <v>1.031526790337162</v>
+        <v>1.006536361295342</v>
       </c>
       <c r="M2">
-        <v>1.040861830341833</v>
+        <v>1.007241985052111</v>
       </c>
       <c r="N2">
-        <v>1.015238511337861</v>
+        <v>1.006618951120779</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03007248251755</v>
+        <v>0.9931640060569508</v>
       </c>
       <c r="D3">
-        <v>1.032630246622662</v>
+        <v>1.001002867365861</v>
       </c>
       <c r="E3">
-        <v>1.029782196258577</v>
+        <v>1.000053190906863</v>
       </c>
       <c r="F3">
-        <v>1.039470920725733</v>
+        <v>1.002313341470764</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032563765878207</v>
+        <v>1.040225164774636</v>
       </c>
       <c r="J3">
-        <v>1.034861902188711</v>
+        <v>1.013842777945546</v>
       </c>
       <c r="K3">
-        <v>1.03524590045261</v>
+        <v>1.011622932379221</v>
       </c>
       <c r="L3">
-        <v>1.032405502867038</v>
+        <v>1.010685391190618</v>
       </c>
       <c r="M3">
-        <v>1.042068378675414</v>
+        <v>1.012916707987819</v>
       </c>
       <c r="N3">
-        <v>1.015541222587669</v>
+        <v>1.008100412716992</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030881240532274</v>
+        <v>0.9970513986520076</v>
       </c>
       <c r="D4">
-        <v>1.033383231927748</v>
+        <v>1.004470755488742</v>
       </c>
       <c r="E4">
-        <v>1.030475198248394</v>
+        <v>1.003237834254451</v>
       </c>
       <c r="F4">
-        <v>1.040375058612687</v>
+        <v>1.006466837216852</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032713488350325</v>
+        <v>1.041190743009782</v>
       </c>
       <c r="J4">
-        <v>1.035436755945643</v>
+        <v>1.016530831882166</v>
       </c>
       <c r="K4">
-        <v>1.035873832225748</v>
+        <v>1.014515520252711</v>
       </c>
       <c r="L4">
-        <v>1.032973215365554</v>
+        <v>1.013297337918584</v>
       </c>
       <c r="M4">
-        <v>1.042848009353497</v>
+        <v>1.016487834792682</v>
       </c>
       <c r="N4">
-        <v>1.015736506279467</v>
+        <v>1.009031264658714</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031221079058205</v>
+        <v>0.9986613989790082</v>
       </c>
       <c r="D5">
-        <v>1.033699697793622</v>
+        <v>1.005908240614012</v>
       </c>
       <c r="E5">
-        <v>1.030766470105037</v>
+        <v>1.004558270677099</v>
       </c>
       <c r="F5">
-        <v>1.040755026238178</v>
+        <v>1.008187691019336</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032776008573091</v>
+        <v>1.041587484848981</v>
       </c>
       <c r="J5">
-        <v>1.035678149646683</v>
+        <v>1.017643129649118</v>
       </c>
       <c r="K5">
-        <v>1.036137589270729</v>
+        <v>1.015713053062002</v>
       </c>
       <c r="L5">
-        <v>1.03321167452347</v>
+        <v>1.014378763247717</v>
       </c>
       <c r="M5">
-        <v>1.043175509427526</v>
+        <v>1.017966145010432</v>
       </c>
       <c r="N5">
-        <v>1.015818462718887</v>
+        <v>1.009416230009968</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031278129959271</v>
+        <v>0.9989303368376184</v>
       </c>
       <c r="D6">
-        <v>1.033752828647603</v>
+        <v>1.006148431598016</v>
       </c>
       <c r="E6">
-        <v>1.03081537210877</v>
+        <v>1.004778924487099</v>
       </c>
       <c r="F6">
-        <v>1.040818816854999</v>
+        <v>1.008475184190885</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032786481200727</v>
+        <v>1.041653570047967</v>
       </c>
       <c r="J6">
-        <v>1.035718664656288</v>
+        <v>1.017828870835445</v>
       </c>
       <c r="K6">
-        <v>1.036181862081034</v>
+        <v>1.015913062902873</v>
       </c>
       <c r="L6">
-        <v>1.03325170077104</v>
+        <v>1.014559385374728</v>
       </c>
       <c r="M6">
-        <v>1.043230483182036</v>
+        <v>1.018213043188158</v>
       </c>
       <c r="N6">
-        <v>1.015832215324939</v>
+        <v>1.009480501903033</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030885782109013</v>
+        <v>0.997073005308331</v>
       </c>
       <c r="D7">
-        <v>1.033387460907429</v>
+        <v>1.004490042168488</v>
       </c>
       <c r="E7">
-        <v>1.03047909049475</v>
+        <v>1.00325554909785</v>
       </c>
       <c r="F7">
-        <v>1.040380136272096</v>
+        <v>1.006489928998947</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032714325410337</v>
+        <v>1.041196079969757</v>
       </c>
       <c r="J7">
-        <v>1.035439982537355</v>
+        <v>1.016545763193482</v>
       </c>
       <c r="K7">
-        <v>1.035877357443522</v>
+        <v>1.014531593367814</v>
       </c>
       <c r="L7">
-        <v>1.032976402480221</v>
+        <v>1.013311852357486</v>
       </c>
       <c r="M7">
-        <v>1.042852386429669</v>
+        <v>1.016507676939786</v>
       </c>
       <c r="N7">
-        <v>1.015737601938028</v>
+        <v>1.009036433238959</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029244437109992</v>
+        <v>0.989100487482046</v>
       </c>
       <c r="D8">
-        <v>1.031859520271543</v>
+        <v>0.9973822992229595</v>
       </c>
       <c r="E8">
-        <v>1.02907292127097</v>
+        <v>0.9967296437052983</v>
       </c>
       <c r="F8">
-        <v>1.038545392487591</v>
+        <v>0.997973881783536</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032409133522982</v>
+        <v>1.039204989510901</v>
       </c>
       <c r="J8">
-        <v>1.034272798907711</v>
+        <v>1.011029656057371</v>
       </c>
       <c r="K8">
-        <v>1.034602658400263</v>
+        <v>1.008597846074222</v>
       </c>
       <c r="L8">
-        <v>1.031823937304008</v>
+        <v>1.007954097038868</v>
       </c>
       <c r="M8">
-        <v>1.041269816141795</v>
+        <v>1.009181368254966</v>
       </c>
       <c r="N8">
-        <v>1.015340936696992</v>
+        <v>1.007125539001893</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026346697999833</v>
+        <v>0.9741755778975156</v>
       </c>
       <c r="D9">
-        <v>1.029164053325448</v>
+        <v>0.984122674879307</v>
       </c>
       <c r="E9">
-        <v>1.026592799419222</v>
+        <v>0.984569151962829</v>
       </c>
       <c r="F9">
-        <v>1.03530780639979</v>
+        <v>0.9820524237597348</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031857762072808</v>
+        <v>1.035375520531927</v>
       </c>
       <c r="J9">
-        <v>1.032207119476185</v>
+        <v>1.000674420185344</v>
       </c>
       <c r="K9">
-        <v>1.032349093291692</v>
+        <v>0.9974787125935369</v>
       </c>
       <c r="L9">
-        <v>1.029786373199142</v>
+        <v>0.9979176456057149</v>
       </c>
       <c r="M9">
-        <v>1.038472643856605</v>
+        <v>0.995443558008139</v>
       </c>
       <c r="N9">
-        <v>1.014637410542688</v>
+        <v>1.0035320649383</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024410978185318</v>
+        <v>0.9635426794702324</v>
       </c>
       <c r="D10">
-        <v>1.027364874832375</v>
+        <v>0.9747125705576332</v>
       </c>
       <c r="E10">
-        <v>1.024937727986082</v>
+        <v>0.9759499312325848</v>
       </c>
       <c r="F10">
-        <v>1.033146110846725</v>
+        <v>0.970723118885499</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031481006549958</v>
+        <v>1.032581533743575</v>
       </c>
       <c r="J10">
-        <v>1.030823846642013</v>
+        <v>0.9932813407153768</v>
       </c>
       <c r="K10">
-        <v>1.030841612078244</v>
+        <v>0.9895539171078118</v>
       </c>
       <c r="L10">
-        <v>1.028423322015123</v>
+        <v>0.9907674319193648</v>
       </c>
       <c r="M10">
-        <v>1.036601937115488</v>
+        <v>0.9856418913866082</v>
       </c>
       <c r="N10">
-        <v>1.014165294207886</v>
+        <v>1.000963192959879</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023571819254811</v>
+        <v>0.9587525558619331</v>
       </c>
       <c r="D11">
-        <v>1.026585253146045</v>
+        <v>0.970483177028321</v>
       </c>
       <c r="E11">
-        <v>1.02422064122451</v>
+        <v>0.9720789633782098</v>
       </c>
       <c r="F11">
-        <v>1.032209231086892</v>
+        <v>0.9656222891136426</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031315681577461</v>
+        <v>1.031308100545159</v>
       </c>
       <c r="J11">
-        <v>1.030223384269761</v>
+        <v>0.9899479767830174</v>
       </c>
       <c r="K11">
-        <v>1.030187613268001</v>
+        <v>0.9859840636275832</v>
       </c>
       <c r="L11">
-        <v>1.027831969257271</v>
+        <v>0.9875473638863299</v>
       </c>
       <c r="M11">
-        <v>1.035790444777253</v>
+        <v>0.9812230045372188</v>
       </c>
       <c r="N11">
-        <v>1.013960118637935</v>
+        <v>0.9998043728491628</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023259966937394</v>
+        <v>0.9569430312748946</v>
       </c>
       <c r="D12">
-        <v>1.026295578810505</v>
+        <v>0.968887070956795</v>
       </c>
       <c r="E12">
-        <v>1.023954216041298</v>
+        <v>0.9706186026238973</v>
       </c>
       <c r="F12">
-        <v>1.031861099252305</v>
+        <v>0.9636958260005191</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031253943006371</v>
+        <v>1.030824912064925</v>
       </c>
       <c r="J12">
-        <v>1.03000011831362</v>
+        <v>0.9886884317373362</v>
       </c>
       <c r="K12">
-        <v>1.02994449840724</v>
+        <v>0.9846356476494198</v>
       </c>
       <c r="L12">
-        <v>1.027612140375977</v>
+        <v>0.9863312150257536</v>
       </c>
       <c r="M12">
-        <v>1.035488796017534</v>
+        <v>0.97955325122575</v>
       </c>
       <c r="N12">
-        <v>1.013883794391185</v>
+        <v>0.999366433658425</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023326867233168</v>
+        <v>0.9573325897448859</v>
       </c>
       <c r="D13">
-        <v>1.026357718977826</v>
+        <v>0.9692306101984559</v>
       </c>
       <c r="E13">
-        <v>1.024011368232496</v>
+        <v>0.9709329022651934</v>
       </c>
       <c r="F13">
-        <v>1.031935780811868</v>
+        <v>0.9641105400091297</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031267201065088</v>
+        <v>1.03092902895878</v>
       </c>
       <c r="J13">
-        <v>1.030048019957649</v>
+        <v>0.9889596026959174</v>
       </c>
       <c r="K13">
-        <v>1.029996656040563</v>
+        <v>0.9849259297813558</v>
       </c>
       <c r="L13">
-        <v>1.027659302337209</v>
+        <v>0.9865930163553865</v>
       </c>
       <c r="M13">
-        <v>1.035553510925192</v>
+        <v>0.9799127402445299</v>
       </c>
       <c r="N13">
-        <v>1.013900171323519</v>
+        <v>0.999460721525132</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023546044556202</v>
+        <v>0.958603611581791</v>
       </c>
       <c r="D14">
-        <v>1.026561310391276</v>
+        <v>0.9703517664121438</v>
       </c>
       <c r="E14">
-        <v>1.024198619822609</v>
+        <v>0.9719587189599289</v>
       </c>
       <c r="F14">
-        <v>1.032180457142994</v>
+        <v>0.9654637107895385</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031310584975106</v>
+        <v>1.031268371509602</v>
       </c>
       <c r="J14">
-        <v>1.030204933692826</v>
+        <v>0.9898443081415015</v>
       </c>
       <c r="K14">
-        <v>1.030167521222223</v>
+        <v>0.9858730704086573</v>
       </c>
       <c r="L14">
-        <v>1.02781380170008</v>
+        <v>0.9874472550358313</v>
       </c>
       <c r="M14">
-        <v>1.035765514999526</v>
+        <v>0.9810855743936779</v>
       </c>
       <c r="N14">
-        <v>1.013953811959843</v>
+        <v>0.9997683288947337</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023681066761229</v>
+        <v>0.9593826468062534</v>
       </c>
       <c r="D15">
-        <v>1.026686738007576</v>
+        <v>0.9710391595409074</v>
       </c>
       <c r="E15">
-        <v>1.024313982719155</v>
+        <v>0.9725877228527016</v>
       </c>
       <c r="F15">
-        <v>1.032331192532877</v>
+        <v>0.9662931532641258</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031337271543175</v>
+        <v>1.031476083152759</v>
       </c>
       <c r="J15">
-        <v>1.030301583196787</v>
+        <v>0.9903865217571594</v>
       </c>
       <c r="K15">
-        <v>1.030272771559892</v>
+        <v>0.9864536133405233</v>
       </c>
       <c r="L15">
-        <v>1.027908970707529</v>
+        <v>0.987970873972233</v>
       </c>
       <c r="M15">
-        <v>1.035896107842197</v>
+        <v>0.9818043673905056</v>
       </c>
       <c r="N15">
-        <v>1.013986846740816</v>
+        <v>0.9999568454094644</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02446664940778</v>
+        <v>0.9638564735142396</v>
       </c>
       <c r="D16">
-        <v>1.027416603571409</v>
+        <v>0.9749898458566654</v>
       </c>
       <c r="E16">
-        <v>1.024985309389924</v>
+        <v>0.9762037728943023</v>
       </c>
       <c r="F16">
-        <v>1.033208270101842</v>
+        <v>0.9710573279414626</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031491932463127</v>
+        <v>1.032664655484451</v>
       </c>
       <c r="J16">
-        <v>1.030863665598849</v>
+        <v>0.9934996542559276</v>
       </c>
       <c r="K16">
-        <v>1.030884989256162</v>
+        <v>0.9897877865743114</v>
       </c>
       <c r="L16">
-        <v>1.028462543865986</v>
+        <v>0.9909784052786078</v>
       </c>
       <c r="M16">
-        <v>1.036655761967714</v>
+        <v>0.985931300716504</v>
       </c>
       <c r="N16">
-        <v>1.014178895246298</v>
+        <v>1.001039077738133</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024959159474248</v>
+        <v>0.9666114323662421</v>
       </c>
       <c r="D17">
-        <v>1.027874275320737</v>
+        <v>0.9774253161006582</v>
       </c>
       <c r="E17">
-        <v>1.025406297914753</v>
+        <v>0.9784337512789648</v>
       </c>
       <c r="F17">
-        <v>1.03375820619025</v>
+        <v>0.9739918607920433</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031588360930435</v>
+        <v>1.033392765552414</v>
       </c>
       <c r="J17">
-        <v>1.031215842572279</v>
+        <v>0.9954160363908507</v>
       </c>
       <c r="K17">
-        <v>1.031268680702217</v>
+        <v>0.9918410878464331</v>
       </c>
       <c r="L17">
-        <v>1.028809478034331</v>
+        <v>0.9928307851350902</v>
       </c>
       <c r="M17">
-        <v>1.03713187786409</v>
+        <v>0.988471810067052</v>
       </c>
       <c r="N17">
-        <v>1.014299161879734</v>
+        <v>1.001705140319538</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025246338041949</v>
+        <v>0.9682005753997776</v>
       </c>
       <c r="D18">
-        <v>1.028141173159695</v>
+        <v>0.9788310895876435</v>
       </c>
       <c r="E18">
-        <v>1.025651812099182</v>
+        <v>0.9797211900271944</v>
       </c>
       <c r="F18">
-        <v>1.034078892811572</v>
+        <v>0.9756848739971286</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03164439503791</v>
+        <v>1.033811366928301</v>
       </c>
       <c r="J18">
-        <v>1.031421117275556</v>
+        <v>0.9965211951086539</v>
       </c>
       <c r="K18">
-        <v>1.0314923610679</v>
+        <v>0.9930255123248238</v>
       </c>
       <c r="L18">
-        <v>1.029011728789543</v>
+        <v>0.9938993904671898</v>
       </c>
       <c r="M18">
-        <v>1.037409447260143</v>
+        <v>0.9899369463463846</v>
       </c>
       <c r="N18">
-        <v>1.014369239441937</v>
+        <v>1.002089196430149</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025344242656056</v>
+        <v>0.9687394828221829</v>
       </c>
       <c r="D19">
-        <v>1.028232169301967</v>
+        <v>0.9793079660594556</v>
       </c>
       <c r="E19">
-        <v>1.025735519165566</v>
+        <v>0.9801579700874897</v>
       </c>
       <c r="F19">
-        <v>1.034188224941075</v>
+        <v>0.9762590548336683</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031663465460303</v>
+        <v>1.033953083482624</v>
       </c>
       <c r="J19">
-        <v>1.031491086273126</v>
+        <v>0.9968959266137071</v>
       </c>
       <c r="K19">
-        <v>1.031568609962374</v>
+        <v>0.9934271727130797</v>
       </c>
       <c r="L19">
-        <v>1.029080672473979</v>
+        <v>0.9942617875907949</v>
       </c>
       <c r="M19">
-        <v>1.037504067476621</v>
+        <v>0.9904337484081465</v>
       </c>
       <c r="N19">
-        <v>1.014393121903442</v>
+        <v>1.002219410203617</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0249063275825</v>
+        <v>0.9663177061053694</v>
       </c>
       <c r="D20">
-        <v>1.027825177119083</v>
+        <v>0.9771655563915466</v>
       </c>
       <c r="E20">
-        <v>1.025361134122232</v>
+        <v>0.9781958796961575</v>
       </c>
       <c r="F20">
-        <v>1.0336992117512</v>
+        <v>0.9736789592089059</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031578036898614</v>
+        <v>1.033315280722072</v>
       </c>
       <c r="J20">
-        <v>1.031178072248576</v>
+        <v>0.9952117441495764</v>
       </c>
       <c r="K20">
-        <v>1.031227526712778</v>
+        <v>0.9916221678245628</v>
       </c>
       <c r="L20">
-        <v>1.02877226668591</v>
+        <v>0.9926332786300194</v>
       </c>
       <c r="M20">
-        <v>1.037080809746983</v>
+        <v>0.988200979475698</v>
       </c>
       <c r="N20">
-        <v>1.014286265854491</v>
+        <v>1.001634141641932</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023481506508397</v>
+        <v>0.958230182525069</v>
       </c>
       <c r="D21">
-        <v>1.02650136025269</v>
+        <v>0.9700223233704246</v>
       </c>
       <c r="E21">
-        <v>1.02414348077368</v>
+        <v>0.9716572771613884</v>
       </c>
       <c r="F21">
-        <v>1.032108409773592</v>
+        <v>0.965066134431617</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031297818598347</v>
+        <v>1.03116872989676</v>
       </c>
       <c r="J21">
-        <v>1.030158732810725</v>
+        <v>0.9895843879733573</v>
       </c>
       <c r="K21">
-        <v>1.030117210969021</v>
+        <v>0.9855947937789965</v>
       </c>
       <c r="L21">
-        <v>1.027768310315496</v>
+        <v>0.9871962695380109</v>
       </c>
       <c r="M21">
-        <v>1.035703091313185</v>
+        <v>0.9807410058058589</v>
       </c>
       <c r="N21">
-        <v>1.013938019252696</v>
+        <v>0.9996779577284726</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022584787335401</v>
+        <v>0.9529688202083235</v>
       </c>
       <c r="D22">
-        <v>1.025668512580859</v>
+        <v>0.9653846640082813</v>
       </c>
       <c r="E22">
-        <v>1.023377503481812</v>
+        <v>0.967414997230538</v>
       </c>
       <c r="F22">
-        <v>1.031107437533997</v>
+        <v>0.9594655609547122</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031119727311483</v>
+        <v>1.029759858012179</v>
       </c>
       <c r="J22">
-        <v>1.029516516069676</v>
+        <v>0.9859216268590204</v>
       </c>
       <c r="K22">
-        <v>1.029418007306984</v>
+        <v>0.9816745256239602</v>
       </c>
       <c r="L22">
-        <v>1.027136074358501</v>
+        <v>0.9836608374656687</v>
       </c>
       <c r="M22">
-        <v>1.034835564686297</v>
+        <v>0.9758851744546896</v>
       </c>
       <c r="N22">
-        <v>1.013718409152965</v>
+        <v>0.9984043239527973</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023060239720552</v>
+        <v>0.9557755328921268</v>
       </c>
       <c r="D23">
-        <v>1.026110070431628</v>
+        <v>0.9678577346094839</v>
       </c>
       <c r="E23">
-        <v>1.023783600419473</v>
+        <v>0.9696769495141078</v>
       </c>
       <c r="F23">
-        <v>1.031638146724862</v>
+        <v>0.9624529989144086</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031214317925303</v>
+        <v>1.030512569633698</v>
       </c>
       <c r="J23">
-        <v>1.029857093119205</v>
+        <v>0.9878756973778049</v>
       </c>
       <c r="K23">
-        <v>1.029788774011156</v>
+        <v>0.9837657064185886</v>
       </c>
       <c r="L23">
-        <v>1.027471331048162</v>
+        <v>0.9855466499306543</v>
       </c>
       <c r="M23">
-        <v>1.035295581708751</v>
+        <v>0.9784758032067695</v>
       </c>
       <c r="N23">
-        <v>1.013834890852808</v>
+        <v>0.9990838324279008</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024930200331206</v>
+        <v>0.9664504831268609</v>
       </c>
       <c r="D24">
-        <v>1.027847362650848</v>
+        <v>0.9772829762058102</v>
       </c>
       <c r="E24">
-        <v>1.025381541823581</v>
+        <v>0.9783034045107101</v>
       </c>
       <c r="F24">
-        <v>1.03372586905129</v>
+        <v>0.9738204034175676</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031582702536098</v>
+        <v>1.033350311564467</v>
       </c>
       <c r="J24">
-        <v>1.031195139477416</v>
+        <v>0.9953040939505283</v>
       </c>
       <c r="K24">
-        <v>1.031246122800966</v>
+        <v>0.991721129127849</v>
       </c>
       <c r="L24">
-        <v>1.028789081232567</v>
+        <v>0.9927225598512317</v>
       </c>
       <c r="M24">
-        <v>1.037103885666192</v>
+        <v>0.9883234076115185</v>
       </c>
       <c r="N24">
-        <v>1.014292093235437</v>
+        <v>1.0016662365922</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027096503888501</v>
+        <v>0.9781469642918907</v>
       </c>
       <c r="D25">
-        <v>1.029861272476416</v>
+        <v>0.9876450957823327</v>
       </c>
       <c r="E25">
-        <v>1.027234252867081</v>
+        <v>0.9877978486379149</v>
       </c>
       <c r="F25">
-        <v>1.036145363591248</v>
+        <v>0.986286611767223</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032001918843712</v>
+        <v>1.036406008883517</v>
       </c>
       <c r="J25">
-        <v>1.032742221801606</v>
+        <v>1.003432835082946</v>
       </c>
       <c r="K25">
-        <v>1.032932583206527</v>
+        <v>1.000438282135554</v>
       </c>
       <c r="L25">
-        <v>1.030313947447302</v>
+        <v>1.000588587500963</v>
       </c>
       <c r="M25">
-        <v>1.039196807890675</v>
+        <v>0.9991016072842341</v>
       </c>
       <c r="N25">
-        <v>1.014819832249674</v>
+        <v>1.004489923299895</v>
       </c>
     </row>
   </sheetData>
